--- a/Excel/Excel_task_internship_ajinkya.xlsx
+++ b/Excel/Excel_task_internship_ajinkya.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4FE755-721C-4F5B-9AA4-E7399727FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="846" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9707" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="sales data " sheetId="1" r:id="rId1"/>
@@ -29,23 +23,28 @@
     <definedName name="Slicer_Date">#N/A</definedName>
     <definedName name="Slicer_Region">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId10"/>
-        <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -204,73 +203,13 @@
     <t>Warranty(Years)</t>
   </si>
   <si>
-    <t>Tax rates(%)</t>
+    <t>Offset</t>
   </si>
   <si>
-    <t>Sum of Sales($)</t>
+    <t>OFFSET</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Sales Tax (10%)</t>
-  </si>
-  <si>
-    <t>TechCo</t>
-  </si>
-  <si>
-    <t>MobilePlus</t>
-  </si>
-  <si>
-    <t>HomeEssence</t>
-  </si>
-  <si>
-    <t>VisionMax</t>
-  </si>
-  <si>
-    <t>KitchenKing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East </t>
-  </si>
-  <si>
-    <t xml:space="preserve">West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South </t>
-  </si>
-  <si>
-    <t>Blender Total</t>
-  </si>
-  <si>
-    <t>Air Conditioner Total</t>
-  </si>
-  <si>
-    <t>Camera Total</t>
-  </si>
-  <si>
-    <t>Laptop Total</t>
-  </si>
-  <si>
-    <t>Microwave Total</t>
-  </si>
-  <si>
-    <t>Refrigerator Total</t>
-  </si>
-  <si>
-    <t>Smartphone Total</t>
-  </si>
-  <si>
-    <t>Tablet Total</t>
-  </si>
-  <si>
-    <t>TV Total</t>
-  </si>
-  <si>
-    <t>Washing Machine Total</t>
+    <t>SUBTOTAL</t>
   </si>
   <si>
     <t>Date format 1</t>
@@ -312,25 +251,92 @@
     <t>Right</t>
   </si>
   <si>
-    <t>OFFSET</t>
+    <t>Sum of Sales($)</t>
   </si>
   <si>
-    <t>Offset</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
+    <t>Sum of Sales Tax (10%)</t>
+  </si>
+  <si>
+    <t>Air Conditioner Total</t>
+  </si>
+  <si>
+    <t>Blender Total</t>
+  </si>
+  <si>
+    <t>Camera Total</t>
+  </si>
+  <si>
+    <t>Laptop Total</t>
+  </si>
+  <si>
+    <t>Microwave Total</t>
+  </si>
+  <si>
+    <t>Refrigerator Total</t>
+  </si>
+  <si>
+    <t>Smartphone Total</t>
+  </si>
+  <si>
+    <t>Tablet Total</t>
+  </si>
+  <si>
+    <t>TV Total</t>
+  </si>
+  <si>
+    <t>Washing Machine Total</t>
+  </si>
+  <si>
+    <t>TechCo</t>
+  </si>
+  <si>
+    <t>MobilePlus</t>
+  </si>
+  <si>
+    <t>HomeEssence</t>
+  </si>
+  <si>
+    <t>VisionMax</t>
+  </si>
+  <si>
+    <t>KitchenKing</t>
+  </si>
+  <si>
+    <t>Tax rates(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,20 +344,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,11 +352,169 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,24 +529,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,17 +742,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -435,95 +785,361 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -538,113 +1154,20 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -655,11 +1178,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_task_internship_aj.xlsx]Pivot tables!PivotTable6</c:name>
+    <c:name>[Excel_task_internship_ajinkya.xlsx]Pivot tables!PivotTable6</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,7 +1197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -685,69 +1209,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -779,6 +1244,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Pivot tables'!$A$22:$B$42</c:f>
@@ -891,11 +1359,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BDE-407E-AFCB-113448D10CCB}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -905,6 +1368,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="-1987801984"/>
         <c:axId val="-1987807968"/>
@@ -938,7 +1402,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -950,7 +1414,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1987807968"/>
@@ -997,7 +1460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1009,7 +1472,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1987801984"/>
@@ -1026,6 +1488,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1039,7 +1502,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1051,13 +1514,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{0b7ec65f-8c00-4fc7-a1a0-d4a54f3acdad}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1079,9 +1546,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1104,9 +1570,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1117,11 +1583,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_task_internship_aj.xlsx]Pivot tables!PivotTable1</c:name>
+    <c:name>[Excel_task_internship_ajinkya.xlsx]Pivot tables!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1137,430 +1604,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Georgia"/>
-              <a:ea typeface="Georgia"/>
-              <a:cs typeface="Georgia"/>
+              <a:latin typeface="Georgia" panose="02040502050405020303"/>
+              <a:ea typeface="Georgia" panose="02040502050405020303"/>
+              <a:cs typeface="Georgia" panose="02040502050405020303"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1579,6 +1635,8 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr/>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1593,11 +1651,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-43BC-415F-9659-02BDF59D70BF}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1613,11 +1666,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-43BC-415F-9659-02BDF59D70BF}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1634,7 +1682,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1646,7 +1694,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1657,22 +1704,25 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1704,14 +1754,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-43BC-415F-9659-02BDF59D70BF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1732,6 +1776,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1745,7 +1790,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1757,13 +1802,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{fc63a72e-982c-44c3-99c8-c42bfd84851b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1785,9 +1834,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1801,19 +1849,14 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1824,7 +1867,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_task_internship_aj.xlsx]Pivot tables!PivotTable2</c:name>
+    <c:name>[Excel_task_internship_ajinkya.xlsx]Pivot tables!PivotTable2</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -1835,22 +1878,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Georgia"/>
-                <a:ea typeface="Georgia"/>
-                <a:cs typeface="Georgia"/>
+                <a:latin typeface="Georgia" panose="02040502050405020303"/>
+                <a:ea typeface="Georgia" panose="02040502050405020303"/>
+                <a:cs typeface="Georgia" panose="02040502050405020303"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Date wise sales</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1861,380 +1906,8 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Georgia"/>
-              <a:ea typeface="Georgia"/>
-              <a:cs typeface="Georgia"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:srgbClr val="548235"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2279,6 +1952,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2295,8 +1971,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3117447571528806E-2"/>
-                  <c:y val="-0.38410750082608219"/>
+                  <c:x val="-0.0231174475715288"/>
+                  <c:y val="-0.384107500826082"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2312,7 +1988,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2324,7 +2000,6 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2335,34 +2010,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>01/01/2025</c:v>
+                  <c:v>01-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>05/01/2025</c:v>
+                  <c:v>05-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>08/01/2025</c:v>
+                  <c:v>08-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12/01/2025</c:v>
+                  <c:v>12-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15/01/2025</c:v>
+                  <c:v>15-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18/01/2025</c:v>
+                  <c:v>18-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20/01/2025</c:v>
+                  <c:v>20-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22/01/2025</c:v>
+                  <c:v>22-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25/01/2025</c:v>
+                  <c:v>25-01-2025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>03/04/2025</c:v>
+                  <c:v>03-04-2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2407,11 +2082,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D03-4EF4-A68E-D02EB9BFFB11}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2455,7 +2125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2467,7 +2137,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130323488"/>
@@ -2514,7 +2183,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2526,7 +2195,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130327840"/>
@@ -2543,6 +2211,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,7 +2225,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2568,13 +2237,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{02bab5c5-49b9-4490-af0a-dfe6abe41662}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2596,9 +2269,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2612,19 +2284,14 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2635,7 +2302,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_task_internship_aj.xlsx]Pivot tables!PivotTable3</c:name>
+    <c:name>[Excel_task_internship_ajinkya.xlsx]Pivot tables!PivotTable3</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -2646,7 +2313,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="0D0D0D"/>
                 </a:solidFill>
@@ -2659,9 +2326,11 @@
               <a:rPr lang="en-US"/>
               <a:t>Sales($)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2672,319 +2341,8 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="548235"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3015,6 +2373,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$G$3:$G$13</c:f>
@@ -3092,11 +2453,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6431-4AFC-9A1F-96DD7B0CEC1B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3140,7 +2496,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3152,7 +2508,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130332736"/>
@@ -3199,7 +2554,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3211,7 +2566,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130336544"/>
@@ -3228,6 +2582,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3241,7 +2596,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3253,13 +2608,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{454fa666-eead-4f90-b11f-e2c178815f2c}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3281,9 +2640,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3297,19 +2655,14 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3321,6 +2674,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3336,16 +2690,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Georgia"/>
-              <a:ea typeface="Georgia"/>
-              <a:cs typeface="Georgia"/>
+              <a:latin typeface="Georgia" panose="02040502050405020303"/>
+              <a:ea typeface="Georgia" panose="02040502050405020303"/>
+              <a:cs typeface="Georgia" panose="02040502050405020303"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3353,7 +2706,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3391,6 +2744,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'sales data '!$E$2:$E$11</c:f>
@@ -3464,11 +2820,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4D2-4578-8D7C-D92FD847C8A1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3524,7 +2875,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3536,7 +2887,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130330560"/>
@@ -3586,7 +2936,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3598,7 +2948,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-130335456"/>
@@ -3615,6 +2964,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3628,7 +2978,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3640,13 +2990,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f21c0b8c-19f7-4922-b316-3bf477d58f00}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3668,9 +3022,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3682,9 +3035,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3695,7 +3048,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_task_internship_aj.xlsx]Pivot tables!PivotTable5</c:name>
+    <c:name>[Excel_task_internship_ajinkya.xlsx]Pivot tables!PivotTable5</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -3706,22 +3059,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Georgia"/>
-                <a:ea typeface="Georgia"/>
-                <a:cs typeface="Georgia"/>
+                <a:latin typeface="Georgia" panose="02040502050405020303"/>
+                <a:ea typeface="Georgia" panose="02040502050405020303"/>
+                <a:cs typeface="Georgia" panose="02040502050405020303"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Sales vs Sales Tax</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3732,611 +3087,8 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Georgia"/>
-              <a:ea typeface="Georgia"/>
-              <a:cs typeface="Georgia"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="548235"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4367,6 +3119,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$A$8:$A$18</c:f>
@@ -4444,11 +3199,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C701-44C1-924D-B1E3414E1299}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4491,6 +3241,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$A$8:$A$18</c:f>
@@ -4569,11 +3322,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C701-44C1-924D-B1E3414E1299}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4583,7 +3331,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="-2027216272"/>
         <c:axId val="-2027210832"/>
@@ -4617,7 +3365,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4629,7 +3377,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2027205936"/>
@@ -4676,7 +3423,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4688,13 +3435,49 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2027213008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="-2027216272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2027210832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="-2027210832"/>
         <c:scaling>
@@ -4718,7 +3501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4730,31 +3513,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2027216272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="-2027216272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2027210832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4765,6 +3529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4778,7 +3543,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4790,13 +3555,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{fd9a7e9d-2365-4534-a01b-941e79e3dac9}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4818,9 +3587,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4833,11 +3601,6 @@
       <c14:pivotOptions>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -8170,7 +6933,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -8184,20 +6947,14 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2981960" y="3151505"/>
+        <a:ext cx="7214870" cy="3258820"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8211,7 +6968,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8225,25 +6982,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881C440A-8A5D-42C5-A5EA-AFA95298AFCA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3309CC05-2498-4A3B-92EC-85EB418A3AA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="2876550"/>
+        <a:ext cx="4080510" cy="2242185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8266,25 +7012,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CACDA3-F42A-4A9C-8675-83D66687D871}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{881C440A-8A5D-42C5-A5EA-AFA95298AFCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1820545" y="640715"/>
+        <a:ext cx="5034280" cy="2254885"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8307,25 +7042,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2222BCC-FBA5-4164-AADB-242D0E5F05D7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{45CACDA3-F42A-4A9C-8675-83D66687D871}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6858000" y="630555"/>
+        <a:ext cx="6108700" cy="2265045"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8348,25 +7072,14 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E59C8E-DB36-4D70-B489-F03B2E28AC95}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2222BCC-FBA5-4164-AADB-242D0E5F05D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8766810" y="2896235"/>
+        <a:ext cx="4199890" cy="2233930"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8389,25 +7102,14 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F579CCB6-7630-44D3-AD83-79E1D27F27CF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{20E59C8E-DB36-4D70-B489-F03B2E28AC95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4070985" y="2886075"/>
+        <a:ext cx="4709795" cy="2234565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8430,21 +7132,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3933825" cy="666750"/>
+          <a:ext cx="4051935" cy="643890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8487,6 +7183,11 @@
             </a:rPr>
             <a:t>Sales Data Analysis</a:t>
           </a:r>
+          <a:endParaRPr lang="en-IN" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8505,17 +7206,11 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame>
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Category 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="9" name="Category 1"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -8539,8 +7234,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3933825" y="12886"/>
-              <a:ext cx="2743200" cy="663389"/>
+              <a:off x="4051935" y="12700"/>
+              <a:ext cx="2821940" cy="640715"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8559,9 +7254,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+                <a:rPr sz="1100"/>
+                <a:t>This shape represents a slicer. 
+Slicers are not supported in this version. Please update to the latest version of WPS Office.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8583,17 +7278,11 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame>
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="10" name="Date">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="10" name="Date"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -8617,8 +7306,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="665070"/>
-              <a:ext cx="1790700" cy="2344830"/>
+              <a:off x="0" y="641985"/>
+              <a:ext cx="1830070" cy="2253615"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8637,9 +7326,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+                <a:rPr sz="1100"/>
+                <a:t>This shape represents a slicer. 
+Slicers are not supported in this version. Please update to the latest version of WPS Office.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8661,17 +7350,11 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame>
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="11" name="Region">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="11" name="Region"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -8695,8 +7378,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6662458" y="1"/>
-              <a:ext cx="5904000" cy="676274"/>
+              <a:off x="6859270" y="0"/>
+              <a:ext cx="6100445" cy="653415"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8715,9 +7398,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+                <a:rPr sz="1100"/>
+                <a:t>This shape represents a slicer. 
+Slicers are not supported in this version. Please update to the latest version of WPS Office.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8730,14 +7413,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45687.536587962961" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedDate="45687.536587963" refreshedBy="Excel Services" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P11" sheet="sales data "/>
   </cacheSource>
   <cacheFields count="16">
-    <cacheField name="Transaction ID" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
+    <cacheField name="Transaction ID" numFmtId="0"/>
     <cacheField name="Product" numFmtId="0">
       <sharedItems count="10">
         <s v="Air Conditioner"/>
@@ -8766,11 +7447,9 @@
         <s v="South"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sales($)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="2500"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-04-04T00:00:00" count="10">
+    <cacheField name="Sales($)" numFmtId="0"/>
+    <cacheField name="Date" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2025-01-01T00:00:00" maxDate="2025-04-03T00:00:00" count="10">
         <d v="2025-01-25T00:00:00"/>
         <d v="2025-01-01T00:00:00"/>
         <d v="2025-01-05T00:00:00"/>
@@ -8783,40 +7462,20 @@
         <d v="2025-01-22T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Units sold" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Sales Tax (10%)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="250"/>
-    </cacheField>
-    <cacheField name="Total revenue " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="330" maxValue="2750"/>
-    </cacheField>
-    <cacheField name="Sales&gt;2000" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Sales Categories" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Sales&gt;5000 &amp; Tax&gt;500" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="2000&lt;Sales&lt;20000" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Bonus (5%)" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="First Quarter Sale" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Sales State" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
+    <cacheField name="Units sold" numFmtId="0"/>
+    <cacheField name="Sales Tax (10%)" numFmtId="0"/>
+    <cacheField name="Total revenue " numFmtId="0"/>
+    <cacheField name="Sales&gt;2000" numFmtId="0"/>
+    <cacheField name="Sales Categories" numFmtId="0"/>
+    <cacheField name="Sales&gt;5000 &amp; Tax&gt;500" numFmtId="0"/>
+    <cacheField name="2000&lt;Sales&lt;20000" numFmtId="0"/>
+    <cacheField name="Bonus (5%)" numFmtId="0"/>
+    <cacheField name="First Quarter Sale" numFmtId="0"/>
+    <cacheField name="Sales State" numFmtId="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="670482222"/>
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -9008,7 +7667,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9030,7 +7689,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" numFmtId="180" showAll="0">
       <items count="11">
         <item x="1"/>
         <item x="2"/>
@@ -9076,163 +7735,17 @@
   <dataFields count="1">
     <dataField name="Sum of Sales($)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="13">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D2:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9254,7 +7767,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" outline="0" numFmtId="180" showAll="0">
       <items count="11">
         <item x="1"/>
         <item x="2"/>
@@ -9324,103 +7837,17 @@
   <dataFields count="1">
     <dataField name="Sum of Sales($)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A7:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9456,7 +7883,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" numFmtId="180" showAll="0">
       <items count="11">
         <item x="1"/>
         <item x="2"/>
@@ -9535,211 +7962,17 @@
     <dataField name="Sum of Sales($)" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of Sales Tax (10%)" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A21:C42" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9775,7 +8008,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" numFmtId="180" showAll="0">
       <items count="11">
         <item x="1"/>
         <item x="2"/>
@@ -9886,148 +8119,17 @@
   <dataFields count="1">
     <dataField name="Sum of Sales($)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="G2:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10063,7 +8165,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" numFmtId="180" showAll="0">
       <items count="11">
         <item x="1"/>
         <item x="2"/>
@@ -10133,121 +8235,17 @@
   <dataFields count="1">
     <dataField name="Sum of Sales($)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Category" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Category">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Category" sourceName="Category">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable2"/>
     <pivotTable tabId="5" name="PivotTable3"/>
@@ -10256,18 +8254,19 @@
     <pivotTable tabId="5" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="670482222">
+    <tabular pivotCacheId="1">
       <items count="2">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
+  <extLst/>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Date" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Date">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Date" sourceName="Date">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable2"/>
     <pivotTable tabId="5" name="PivotTable1"/>
@@ -10276,7 +8275,7 @@
     <pivotTable tabId="5" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="670482222">
+    <tabular pivotCacheId="1">
       <items count="10">
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -10291,11 +8290,12 @@
       </items>
     </tabular>
   </data>
+  <extLst/>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="Region">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable6"/>
     <pivotTable tabId="5" name="PivotTable1"/>
@@ -10304,7 +8304,7 @@
     <pivotTable tabId="5" name="PivotTable5"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="670482222">
+    <tabular pivotCacheId="1">
       <items count="4">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
@@ -10313,14 +8313,15 @@
       </items>
     </tabular>
   </data>
+  <extLst/>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Category 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Category" caption="Category" columnCount="2" style="SlicerStyleDark6" rowHeight="241300"/>
-  <slicer name="Date" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Date" caption="Date" startItem="2" style="SlicerStyleDark6" rowHeight="241300"/>
-  <slicer name="Region" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Region" caption="Region" columnCount="4" style="SlicerStyleDark6" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Category 1" cache="Slicer_Category" caption="Category" columnCount="2" style="SlicerStyleDark6" rowHeight="241300"/>
+  <slicer name="Date" cache="Slicer_Date" caption="Date" startItem="2" style="SlicerStyleDark6" rowHeight="241300"/>
+  <slicer name="Region" cache="Slicer_Region" caption="Region" columnCount="4" style="SlicerStyleDark6" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -10367,7 +8368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10400,26 +8401,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10452,23 +8436,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10610,738 +8577,732 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7222222222222" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" customWidth="1"/>
-    <col min="14" max="14" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="36.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="20.5462962962963" customWidth="1"/>
+    <col min="6" max="6" width="22.7222222222222" customWidth="1"/>
+    <col min="7" max="7" width="16.2685185185185" customWidth="1"/>
+    <col min="10" max="10" width="22.2685185185185" customWidth="1"/>
+    <col min="11" max="11" width="17.1759259259259" customWidth="1"/>
+    <col min="12" max="12" width="22.4537037037037" customWidth="1"/>
+    <col min="13" max="13" width="19.7222222222222" customWidth="1"/>
+    <col min="14" max="14" width="32.5462962962963" customWidth="1"/>
+    <col min="15" max="15" width="18.1759259259259" customWidth="1"/>
+    <col min="16" max="16" width="16.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2500</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <v>45682</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <f t="shared" ref="H2:H12" si="0">0.1*E2</f>
         <v>250</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:I12" si="1">E2+H2</f>
         <v>2750</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(E2&gt;2000,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(E2&gt;2000,"High",IF(E2&gt;1000,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="L2" s="4" t="b">
         <f>AND(E2&gt;5000,H2&gt;500)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="b">
+      <c r="M2" s="4" t="b">
         <f>OR(E2&lt;2000,E2&gt;20000)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(E2&gt;8000,E2*0.05,"Not Valid")</f>
         <v>Not Valid</v>
       </c>
-      <c r="O2" s="9" t="str">
+      <c r="O2" s="15" t="str">
         <f>IFERROR(IF(AND(MONTH(F2)&gt;=1,MONTH(F2)&lt;=3),"YES","NO"),"Enter Valid Date")</f>
         <v>YES</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IFERROR(IF(E2&gt;1500,"Above Average","Below Average"),"Enter valid Sales")</f>
         <v>Above Average</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2010</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <v>45658</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>2211</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J12" si="2">IF(E3&gt;2000,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K12" si="3">IF(E3&gt;2000,"High",IF(E3&gt;1000,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="L3" s="4" t="b">
         <f t="shared" ref="L3:L12" si="4">AND(E3&gt;5000,H3&gt;500)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="b">
+      <c r="M3" s="4" t="b">
         <f t="shared" ref="M3:M12" si="5">OR(E3&lt;2000,E3&gt;20000)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="str">
+      <c r="N3" s="4" t="str">
         <f t="shared" ref="N3:N12" si="6">IF(E3&gt;8000,E3*0.05,"Not Valid")</f>
         <v>Not Valid</v>
       </c>
-      <c r="O3" s="9" t="str">
+      <c r="O3" s="15" t="str">
         <f t="shared" ref="O3:O11" si="7">IFERROR(IF(AND(MONTH(F3)&gt;=1,MONTH(F3)&lt;=3),"YES","NO"),"Enter Valid Date")</f>
         <v>YES</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="P3" s="4" t="str">
         <f t="shared" ref="P3:P12" si="8">IFERROR(IF(E3&gt;1500,"Above Average","Below Average"),"Enter valid Sales")</f>
         <v>Above Average</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:16">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1200</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
         <v>45662</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>1320</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="K4" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="b">
+      <c r="M4" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="N4" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O4" s="9" t="str">
+      <c r="O4" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P4" s="2" t="str">
+      <c r="P4" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:16">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1010</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="11">
         <v>45665</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>1111</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="L5" s="2" t="b">
+      <c r="L5" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="b">
+      <c r="M5" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O5" s="9" t="str">
+      <c r="O5" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="P5" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:16">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>800</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <v>45750</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L6" s="2" t="b">
+      <c r="L6" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="b">
+      <c r="M6" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="N6" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O6" s="9" t="str">
+      <c r="O6" s="15" t="str">
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-      <c r="P6" s="2" t="str">
+      <c r="P6" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" hidden="1" customHeight="1" spans="1:16">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>700</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <v>45669</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L7" s="2" t="b">
+      <c r="L7" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="2" t="b">
+      <c r="M7" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N7" s="2" t="str">
+      <c r="N7" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O7" s="9" t="str">
+      <c r="O7" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:16">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <v>45677</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L8" s="2" t="b">
+      <c r="L8" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="2" t="b">
+      <c r="M8" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="N8" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O8" s="9" t="str">
+      <c r="O8" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P8" s="2" t="str">
+      <c r="P8" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:16">
+      <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
         <v>45672</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L9" s="2" t="b">
+      <c r="L9" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="2" t="b">
+      <c r="M9" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="N9" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O9" s="9" t="str">
+      <c r="O9" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P9" s="2" t="str">
+      <c r="P9" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:16">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="11">
         <v>45675</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L10" s="2" t="b">
+      <c r="L10" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="2" t="b">
+      <c r="M10" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O10" s="9" t="str">
+      <c r="O10" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:16">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>300</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
         <v>45679</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L11" s="2" t="b">
+      <c r="L11" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="2" t="b">
+      <c r="M11" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N11" s="2" t="str">
+      <c r="N11" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="O11" s="9" t="str">
+      <c r="O11" s="15" t="str">
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-      <c r="P11" s="2" t="str">
+      <c r="P11" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="15">
+    <row r="12" customHeight="1" spans="5:16">
+      <c r="E12" s="13">
         <v>400</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="J12" s="15" t="str">
+      <c r="J12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="K12" s="15" t="str">
+      <c r="K12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>Low</v>
       </c>
-      <c r="L12" s="15" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="15" t="b">
+      <c r="M12" s="13" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N12" s="15" t="str">
+      <c r="N12" s="13" t="str">
         <f t="shared" si="6"/>
         <v>Not Valid</v>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" s="13" t="str">
         <f t="shared" si="8"/>
         <v>Below Average</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="6">
         <f>SUM(E2:E11)</f>
         <v>10020</v>
@@ -11367,18 +9328,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -11391,61 +9352,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>87</v>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B21">
         <f ca="1">SUM(OFFSET(E1,0,0,COUNTA(E1:E12),1))</f>
         <v>10420</v>
       </c>
       <c r="C21">
-        <f>SUBTOTAL(9, E2:E11)</f>
+        <f>SUBTOTAL(9,E2:E11)</f>
         <v>9320</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10"/>
+    <row r="22" customHeight="1" spans="2:2">
+      <c r="B22" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P12" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P12" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="4">
       <filters>
-        <filter val="1010"/>
-        <filter val="1200"/>
-        <filter val="2010"/>
-        <filter val="2500"/>
         <filter val="300"/>
         <filter val="400"/>
         <filter val="500"/>
         <filter val="600"/>
         <filter val="800"/>
+        <filter val="1010"/>
+        <filter val="1200"/>
+        <filter val="2010"/>
+        <filter val="2500"/>
       </filters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-    <sortCondition descending="1" ref="E2:E11"/>
+  <sortState ref="A2:I11">
+    <sortCondition ref="E2:E11" descending="1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P11 E12 H12:N12 P12">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K2="Low"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>$E2 &gt;2000</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2&gt;2000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
       <formula1>$B$2:$B$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E770A6-54C9-4936-BD63-8B25C10EED06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -11453,165 +9415,168 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="15.6" spans="1:3">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>88</v>
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" ht="15.6" spans="1:3">
+      <c r="A2" s="4">
         <v>2500</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <f ca="1">SUM(OFFSET(A1,0,0,COUNTA(A:A),1))</f>
         <v>9720</v>
       </c>
-      <c r="C2" s="16">
-        <f>SUBTOTAL(9, A:A)</f>
+      <c r="C2" s="12">
+        <f>SUBTOTAL(9,A:A)</f>
         <v>7920</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" ht="15.6" spans="1:1">
+      <c r="A3" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" ht="15.6" hidden="1" spans="1:1">
+      <c r="A4" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" ht="15.6" spans="1:1">
+      <c r="A5" s="4">
         <v>1010</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" ht="15.6" spans="1:1">
+      <c r="A6" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" ht="15.6" hidden="1" spans="1:1">
+      <c r="A7" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" ht="15.6" spans="1:1">
+      <c r="A8" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" ht="15.6" spans="1:1">
+      <c r="A9" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" ht="15.6" spans="1:1">
+      <c r="A10" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+    <row r="11" ht="15.6" spans="1:1">
+      <c r="A11" s="13">
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A11" xr:uid="{18E770A6-54C9-4936-BD63-8B25C10EED06}">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A11" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
       <filters>
-        <filter val="1010"/>
-        <filter val="2010"/>
-        <filter val="2500"/>
         <filter val="300"/>
         <filter val="400"/>
         <filter val="500"/>
         <filter val="800"/>
+        <filter val="1010"/>
+        <filter val="2010"/>
+        <filter val="2500"/>
       </filters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K2="Low"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$E2 &gt;2000</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2&gt;2000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F145A4B-E6F0-474A-9E3F-90A61109F167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.36328125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.3611111111111" defaultRowHeight="22" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>79</v>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2500</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="11">
         <v>45682</v>
       </c>
       <c r="D2" t="str">
-        <f>TEXT(C2, "DD-MMM-YYY")</f>
+        <f>TEXT(C2,"DD-MMM-YYY")</f>
         <v>25-Jan-2025</v>
       </c>
       <c r="E2" t="str">
-        <f>TEXT(C2, "MMMM-DD-YYYY")</f>
+        <f>TEXT(C2,"MMMM-DD-YYYY")</f>
         <v>January-25-2025</v>
       </c>
       <c r="F2" t="str">
-        <f>TEXT(C2, "DDD, MMM DD")</f>
+        <f>TEXT(C2,"DDD, MMM DD")</f>
         <v>Sat, Jan 25</v>
       </c>
       <c r="G2" t="str">
@@ -11619,7 +9584,7 @@
         <v>$2,500.00</v>
       </c>
       <c r="H2" t="str">
-        <f>TEXT(B2, "0.00%")</f>
+        <f>TEXT(B2,"0.00%")</f>
         <v>250000.00%</v>
       </c>
       <c r="I2" t="str">
@@ -11631,26 +9596,26 @@
         <v>02500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2010</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="11">
         <v>45658</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D11" si="0">TEXT(C3, "DD-MMM-YYY")</f>
+        <f t="shared" ref="D3:D11" si="0">TEXT(C3,"DD-MMM-YYY")</f>
         <v>01-Jan-2025</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E11" si="1">TEXT(C3, "MMMM-DD-YYYY")</f>
+        <f t="shared" ref="E3:E11" si="1">TEXT(C3,"MMMM-DD-YYYY")</f>
         <v>January-01-2025</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="2">TEXT(C3, "DDD, MMM DD")</f>
+        <f t="shared" ref="F3:F11" si="2">TEXT(C3,"DDD, MMM DD")</f>
         <v>Wed, Jan 01</v>
       </c>
       <c r="G3" t="str">
@@ -11658,7 +9623,7 @@
         <v>$2,010.00</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="4">TEXT(B3, "0.00%")</f>
+        <f t="shared" ref="H3:H11" si="4">TEXT(B3,"0.00%")</f>
         <v>201000.00%</v>
       </c>
       <c r="I3" t="str">
@@ -11670,14 +9635,14 @@
         <v>02010</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1200</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="11">
         <v>45662</v>
       </c>
       <c r="D4" t="str">
@@ -11709,14 +9674,14 @@
         <v>01200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1010</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="11">
         <v>45665</v>
       </c>
       <c r="D5" t="str">
@@ -11748,14 +9713,14 @@
         <v>01010</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>800</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>45750</v>
       </c>
       <c r="D6" t="str">
@@ -11787,14 +9752,14 @@
         <v>00800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>700</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>45669</v>
       </c>
       <c r="D7" t="str">
@@ -11826,14 +9791,14 @@
         <v>00700</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>600</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>45677</v>
       </c>
       <c r="D8" t="str">
@@ -11865,14 +9830,14 @@
         <v>00600</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>500</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>45672</v>
       </c>
       <c r="D9" t="str">
@@ -11904,14 +9869,14 @@
         <v>00500</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>400</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>45675</v>
       </c>
       <c r="D10" t="str">
@@ -11943,14 +9908,14 @@
         <v>00400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>300</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>45679</v>
       </c>
       <c r="D11" t="str">
@@ -11984,73 +9949,75 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$K2="Low"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$E2 &gt;2000</formula>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$E2&gt;2000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C11">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K2="Low"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$E2 &gt;2000</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2&gt;2000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404D93A-0630-412D-B220-8356EF17CAD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="21" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>85</v>
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT(A2, "-", B2)</f>
+        <f>_xlfn.CONCAT(A2,"-",B2)</f>
         <v>Air Conditioner-Appliances</v>
       </c>
       <c r="D2" t="str">
@@ -12074,15 +10041,15 @@
         <v>ces</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3, "-", B3)</f>
+        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3,"-",B3)</f>
         <v>Laptop-Electronics</v>
       </c>
       <c r="D3" t="str">
@@ -12106,11 +10073,11 @@
         <v>ics</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="str">
@@ -12138,11 +10105,11 @@
         <v>ces</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="str">
@@ -12170,11 +10137,11 @@
         <v>ics</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="str">
@@ -12202,11 +10169,11 @@
         <v>ics</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="str">
@@ -12234,11 +10201,11 @@
         <v>ces</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="str">
@@ -12266,11 +10233,11 @@
         <v>ics</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="str">
@@ -12298,11 +10265,11 @@
         <v>ces</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="str">
@@ -12330,11 +10297,11 @@
         <v>ics</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="str">
@@ -12362,70 +10329,72 @@
         <v>ces</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
+    <row r="15" customHeight="1" spans="2:2">
+      <c r="B15" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B11">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K2="Low"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$E2 &gt;2000</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2&gt;2000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="8.72222222222222" customWidth="1"/>
+    <col min="3" max="3" width="13.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="10.7222222222222" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.5462962962963" customWidth="1"/>
+    <col min="7" max="7" width="15.7222222222222" customWidth="1"/>
+    <col min="8" max="8" width="13.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>5200</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>45658</v>
       </c>
       <c r="E3">
@@ -12438,14 +10407,14 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>4820</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>45662</v>
       </c>
       <c r="E4">
@@ -12458,14 +10427,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>10020</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>45665</v>
       </c>
       <c r="E5">
@@ -12478,8 +10447,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="12">
+    <row r="6" spans="4:8">
+      <c r="D6" s="8">
         <v>45669</v>
       </c>
       <c r="E6">
@@ -12492,17 +10461,17 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="12">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8">
         <v>45672</v>
       </c>
       <c r="E7">
@@ -12515,7 +10484,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12525,7 +10494,7 @@
       <c r="C8">
         <v>250</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>45675</v>
       </c>
       <c r="E8">
@@ -12538,7 +10507,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -12548,7 +10517,7 @@
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>45677</v>
       </c>
       <c r="E9">
@@ -12561,7 +10530,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -12571,7 +10540,7 @@
       <c r="C10">
         <v>40</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>45679</v>
       </c>
       <c r="E10">
@@ -12584,7 +10553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -12594,7 +10563,7 @@
       <c r="C11">
         <v>201</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>45682</v>
       </c>
       <c r="E11">
@@ -12607,7 +10576,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -12617,7 +10586,7 @@
       <c r="C12">
         <v>50</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>45750</v>
       </c>
       <c r="E12">
@@ -12630,7 +10599,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -12640,20 +10609,20 @@
       <c r="C13">
         <v>120</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>52</v>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E13">
         <v>10020</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <v>10020</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -12664,7 +10633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -12675,7 +10644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -12686,7 +10655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -12697,9 +10666,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>10020</v>
@@ -12708,18 +10677,18 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -12730,15 +10699,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -12749,15 +10718,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -12768,15 +10737,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -12787,15 +10756,15 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -12806,15 +10775,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -12825,15 +10794,15 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12844,15 +10813,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -12863,15 +10832,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -12882,15 +10851,15 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>1010</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -12901,17 +10870,17 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>10020</v>
@@ -12919,27 +10888,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.17592592592593" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="16384" width="9.17592592592593" style="7"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
@@ -12952,87 +10924,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.2685185185185" defaultRowHeight="23.5" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -13047,174 +11020,177 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
       <formula1>$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5462962962963" defaultRowHeight="18.65" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I5">
         <f>HLOOKUP(I4,A9:E10,2,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>$B$9:$E$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>